--- a/biology/Botanique/Sporobolus_rigens/Sporobolus_rigens.xlsx
+++ b/biology/Botanique/Sporobolus_rigens/Sporobolus_rigens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sporobolus rigens est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire d'Amérique du Sud.
 Ce sont des plantes herbacées vivaces, aux rhizomes allongés et aux tiges pouvant atteindre 150 cm de long, et aux inflorescences en panicules spiciforme.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (31 décembre 2017)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (31 décembre 2017) :
 Diachyrium arundinaceum Griseb.
 Diachyrium rigens (Trin.) Mez
 Epicampes arundinacea (Griseb.) Hack.
@@ -526,8 +543,43 @@
 Sporobolus rigens var. expansus Méndez
 Vilfa grandiflora Nees ex Steud.
 Vilfa rigens Trin.
-Liste des variétés
-Selon Tropicos                                           (31 décembre 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sporobolus_rigens</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sporobolus_rigens</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (31 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Sporobolus rigens var. atacamensis (Parodi) Asteg.
 variété Sporobolus rigens var. expansus E. Méndez
 variété Sporobolus rigens var. rigens</t>
